--- a/outputs/KEYWEST1.xlsx
+++ b/outputs/KEYWEST1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The syllabus typically provides an overview of the course structure, including the schedule and deadlines. Given Abi's motivation to accomplish her tasks and her comprehensive information-processing style, she will likely consider finding the syllabus as a crucial step toward understanding what needs to be done during Week 1 and the associated deadlines. The page also explicitly mentions reading the syllabus, which reinforces this step.</t>
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page explicitly instructs to click on "Syllabus" in the left pane and emphasizes the importance of reading the syllabus. This clear instruction aligns with Abi's comprehensive information processing style and preference for process-oriented learning. The presence of a clearly labeled "Syllabus" link in the left pane makes it straightforward for Abi to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This gives her a clear indication that she is in the right place and making progress toward her goal of understanding what to do during Week 1 and the deadlines. The explicit listing of weekly tasks and due dates aligns with Abi's motivation to accomplish her tasks and her comprehensive information processing style, ensuring she gets all the information she needs.</t>
+Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see that she is making progress toward her goal and has access to all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The syllabus page provides a detailed weekly schedule that includes both activities and deadlines. This aligns with Abi's goal of understanding what to do during Week 1 and the Week 1 deadlines. The comprehensive layout of the weekly schedule supports Abi's motivation to complete her tasks and her preference for a comprehensive information processing style. Therefore, Abi would likely consider finding this summary as an important step toward achieving her overall goal.</t>
+Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page is well-organized and clearly labeled, with the "Course Summary" section prominently displayed. Abi's comprehensive information processing style and preference for clear, step-by-step instructions will guide her to scroll down and read through the "Course Summary." The detailed weekly schedule is straightforward and provides the necessary information about activities and deadlines, making it likely that Abi will know what to do at this step.</t>
+Facets: Information Processing Style, Motivations
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through this information to gather all necessary details about Week 1 activities and deadlines. The layout and labeling of the page make it clear what to do next, aligning with Abi's motivation to accomplish tasks.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After scrolling down to the “Course Summary” and reading through it, Abi will see a detailed weekly schedule of activities and deadlines. This aligns directly with her goal of figuring out what to do during Week 1 and the Week 1 deadlines. The clear breakdown of tasks and due dates provides comprehensive information that matches Abi’s motivation to accomplish her tasks and her preference for detailed information. This will confirm to Abi that she is making progress toward her goal and has all the necessary information.</t>
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will be able to confirm that she has found the necessary information and is making progress toward her goal. The clear and organized presentation of the schedule ensures that Abi gets all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST1.xlsx
+++ b/outputs/KEYWEST1.xlsx
@@ -424,112 +424,125 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, looking at the image, ABI would have likely thought of finding the Syllabus as a necessary step because:
-1. The main page explicitly directs students to "begin the course please click on Syllabus" and emphasizes the importance of reading it thoroughly.
-2. Given ABI's comprehensive information processing style and preference to gather all information before proceeding, she would naturally gravitate to the Syllabus as a first step.
-3. The page clearly states that the syllabus contains "a lot of important information" about the course, which aligns with ABI's need to be thorough and comprehensive in her learning approach.
-4. ABI's process-oriented nature would appreciate that the page lays out a clear sequence: first read the syllabus, then proceed to modules.
-5. Given that she wants to know about Week 1 deadlines, and the syllabus is described as containing important information, ABI would logically conclude that the syllabus would contain this critical deadline information.
-The page also makes the Syllabus easily accessible through:
-- A direct link in the left navigation pane
-- A specific "Syllabus Button" in the Start Here section
-- Clear instructions about accessing it
-This clear structure and explicit guidance would appeal to ABI's methodical approach to learning new systems.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: ABI would consider finding the Syllabus page as an essential first step because:
+- The page clearly states "To begin the course please click on Syllabus" with explicit instructions that it contains important information
+- This aligns with ABI's process-oriented learning style as it provides a clear, structured starting point
+- ABI's comprehensive information processing style means she would want to gather all course information before proceeding
+- ABI is motivated to complete tasks properly, and the text emphasizes the importance of reading the syllabus "carefully" for important information
+- The instruction is straightforward and doesn't require any risky or unfamiliar actions, which suits ABI's preferences
+The clear directive and promise of comprehensive information would motivate ABI to see this as a necessary first step toward understanding the course requirements and deadlines.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, ABI would know what to do at this step because:
-1. The instruction is very explicit in the main content area: "To begin the course please click on Syllabus in the left pane"
-2. The Syllabus link is clearly visible in the left navigation menu
-3. Given ABI's characteristics:
-- She likes clear, step-by-step instructions (which this provides)
-- She prefers to thoroughly understand things before proceeding (the text explains why reading the syllabus is important)
-- She's somewhat hesitant about technology (but this is a simple, clearly labeled link)
-The page layout makes it easy to find the Syllabus link because:
-- It's in a consistent left menu location
-- It's clearly labeled
-- The link text matches exactly what's referenced in the instructions
-- There's good contrast making it readable
-- The main content directly points to where to find it
-The comprehensive instructions that explain both what to do (click Syllabus) and why it's important (contains crucial course information) would give ABI the confidence that she's taking the correct action. This aligns well with her methodical, process-oriented learning style.</t>
+          <t>Answer: YES
+Facets:
+1. Learning Style
+2. Computer Self-Efficacy
+3. Information Processing Style
+Why: ABI would know what to do at this step because:
+- The instruction is explicitly stated: "To begin the course please click on Syllabus in the left pane"
+- The Syllabus link is clearly visible in the left navigation pane
+- The instruction is process-oriented with a clear step-by-step direction, which aligns with ABI's learning style
+- There's no technical jargon or complex navigation required, addressing ABI's lower computer self-efficacy
+- The page provides comprehensive information about why clicking the Syllabus is important ("read through the syllabus - do actually read the whole thing carefully, since there's a lot of important information there"), which aligns with ABI's information processing style
+- The action is straightforward and risk-free, as it clearly indicates what will happen when clicking the link
+The clear instructions and visible link location make this action very approachable for ABI.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, after clicking on "Syllabus" in the left navigation pane, the student will know they're making progress because:
-1. The page clearly shows "Course Syllabus" as the main heading
-2. They can see a weekly schedule table that shows Week 1 (1/13) information including:
-   - Required readings about "Building blocks (Topic A)" and "Comparative evaluation (Topic B)"
-   - A weekly deadline note at the bottom stating that online discussion contributions are due by Monday at 8:00 am
-The page also provides additional helpful context:
-- Course grading breakdown (70% Assignments, 30% Quizzes)
-- Links to download the full syllabus in PDF format
-- Access to the course schedule and other important course policies
-This is exactly the kind of information a student would need to understand their Week 1 responsibilities and deadlines, confirming they're in the right place to achieve their goal.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Information Overload)
+Why: Although ABI has reached the syllabus page, she will likely struggle to confirm she's making progress because:
+- The page presents multiple options (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) without clear guidance on which to select first
+- There are multiple PDF links and versions of the syllabus, which could confuse ABI about which one contains the Week 1 information
+- The weekly schedule table contains a lot of information at once, making it overwhelming to process
+- The technical terms and abbreviations (like "UCD", "Topic A", etc.) might be unfamiliar to ABI given her lower computer self-efficacy
+- While Week 1 information is present in the table, it's embedded within a large amount of other information, making it difficult for ABI's comprehensive information processing style to focus on just Week 1 details
+- The page lacks clear indicators or highlighting of immediate next steps, which doesn't align with ABI's process-oriented learning style
+The overwhelming amount of information and lack of clear next steps would make it difficult for ABI to confirm she's making progress toward her specific goal of finding Week 1 information and deadlines.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Looking at this scenario through the ABI persona lens:
-Abi would likely see looking up Week 1 activities and deadlines as a necessary and logical step toward understanding what needs to be done in the course. This aligns with her characteristics:
-1. Abi is very process-oriented and likes to be thorough in understanding requirements
-2. She prefers to gather comprehensive information before proceeding
-3. She tends to be risk-averse and wants to make sure she understands deadlines clearly
-On the syllabus page shown, Week 1 (1/13) shows:
-- Readings on "Building blocks (Topic A)"
-- Readings on "Comparative evaluation (Topic B)"
-- There's also a note about online discussion posts being due weekly by Monday at 8:00 am
-So yes, Abi would definitely consider this a necessary step because:
-- It helps her understand the exact requirements
-- It lets her see concrete deadlines
-- It gives her a clear process to follow
-- It reduces uncertainty about what's expected
-This methodical information-gathering approach matches well with Abi's problem-solving style.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Learning Style
+Why: ABI would consider finding the summary of activities and deadlines as a necessary step because:
+- ABI's comprehensive information processing style aligns with wanting to understand all requirements and deadlines
+- The page shows a clear "Weekly schedule" table that appears to contain the information she needs
+- The table has a column specifically titled "What is 'due' in class" which directly relates to her goal of finding deadlines
+- There's a footnote about discussion contributions being "due weekly by Monday at 8:00 am" which provides specific deadline information
+- ABI is motivated to complete tasks correctly and would want to gather all the necessary information before proceeding
+- The structured format of the weekly schedule (organized by week numbers) aligns with her process-oriented learning style
+Despite the page being information-heavy, ABI would recognize this as a logical step since it contains the specific scheduling information she needs to find Week 1 activities and deadlines.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the image, taking this action wouldn't be fully effective because:
-1. The "Course Summary" section appears to be empty or incomplete in the image - there's just a table header with "Date", "Details", and "Due" columns but no content.
-2. For Week 1 information, the better source would be the "Syllabus - Weekly schedule" table below, which shows:
-- Week 1 (1/13) has:
-  * Readings: Building blocks (Topic A)
-  * Readings: Comparative evaluation (Topic B)
-- There's also a note about weekly discussion posts being due Mondays at 8:00 am
-3. The action of looking at "Course Summary" wouldn't give ABI the complete information needed. ABI would need to:
-- Look at the weekly schedule table instead
-- Check the assignment weightings shown on the right (70% Assignments, 30% Quizzes)
-- Potentially reference other syllabus sections like "Schedule of Assignments and Quizzes" linked at the top
-So while the page contains the needed information, focusing solely on the Course Summary section would not be the most effective approach for finding Week 1 activities and deadlines.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Unclear Information Structure)
+4. Learning Style
+Why: ABI would struggle at this step because:
+- The "Course Summary" section appears empty/blank in the page, which would confuse ABI who prefers clear, explicit information
+- There are multiple competing elements on the page (multiple PDF links, tabs at the top, and a weekly schedule table) without clear indication of which one contains the detailed deadline information
+- The page structure doesn't provide a clear process-oriented path to find the specific Week 1 deadline information
+- ABI's comprehensive information processing style would make her uncertain about whether to:
+  * Look at the Weekly Schedule table
+  * Click on "Schedule of Assignments and Quizzes" PDF
+  * Read through the Syllabus PDF
+  * Look at the Course Summary section
+- The empty Course Summary section doesn't provide the confirmation ABI needs to know she's taking the right action
+- With her lower computer self-efficacy, having multiple options without clear guidance would make her hesitant about which path to take
+The lack of clear structure and multiple competing information sources would make it difficult for ABI to confidently know what action to take next.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at this action, scrolling to "Course Summary" is not the most efficient way for a student to find Week 1 activities and deadlines. The image shows a weekly schedule table that more directly provides this information.
-For Week 1 (1/13), the schedule clearly shows:
-- Readings on "Building blocks (Topic A)"
-- Readings on "Comparative evaluation (Topic B)"
-Additionally, there's a note at the bottom indicating that online discussion contributions are due weekly by Monday at 8:00 am.
-By looking at the Course Summary section, Abi would likely feel uncertain about whether they found all the needed information, because:
-1. The Course Summary section appears empty in the image
-2. The weekly schedule table provides much more specific information
-3. A more effective approach would be to look directly at the weekly schedule and the syllabus components listed at the top (Syllabus &amp; Schedule, Tools, Course Introduction, etc.)
-To better achieve their goal, Abi should:
-1. Focus on the weekly schedule table
-2. Check the full syllabus PDF (linked at the top)
-3. Review the Schedule of Assignments and Quizzes document (also linked)
-This would provide more confidence in having found all relevant Week 1 information and deadlines.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Incomplete/Unclear Information)
+Why: ABI would not feel confident she's making progress because:
+- The Course Summary section appears empty/blank, providing no actual information about deadlines or activities
+- While there is a Weekly Schedule table below, it doesn't provide complete information about deadlines:
+  * It shows topics but doesn't specify exact due dates for assignments
+  * Contains technical terms (like "Topic A", "UCD") that might be unfamiliar to ABI
+  * Doesn't clearly state all requirements for Week 1
+- With ABI's comprehensive information processing style, she would feel uncertain because:
+  * The information is scattered across different sections and PDFs
+  * There's no clear connection between the Weekly Schedule and specific deadlines
+  * The footnote about discussion posts due "Monday at 8:00 am" doesn't specify if this applies to Week 1
+- Given ABI's process-oriented learning style, the lack of clear, step-by-step information about Week 1 requirements would make her unsure if she's found everything she needs
+- With her lower computer self-efficacy, she would be uncertain if she needs to look elsewhere (like the PDF documents) for complete information
+The incomplete and fragmented nature of the information would not give ABI confidence that she has found all the necessary Week 1 information and deadlines.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST1.xlsx
+++ b/outputs/KEYWEST1.xlsx
@@ -444,17 +444,17 @@
         <is>
           <t>Answer: YES
 Facets:
-1. Learning Style
-2. Computer Self-Efficacy
-3. Information Processing Style
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
 Why: ABI would know what to do at this step because:
-- The instruction is explicitly stated: "To begin the course please click on Syllabus in the left pane"
+- There is explicit instruction stating "To begin the course please click on Syllabus in the left pane"
+- The instruction is clear and direct, which aligns with ABI's process-oriented learning style
 - The Syllabus link is clearly visible in the left navigation pane
-- The instruction is process-oriented with a clear step-by-step direction, which aligns with ABI's learning style
-- There's no technical jargon or complex navigation required, addressing ABI's lower computer self-efficacy
-- The page provides comprehensive information about why clicking the Syllabus is important ("read through the syllabus - do actually read the whole thing carefully, since there's a lot of important information there"), which aligns with ABI's information processing style
-- The action is straightforward and risk-free, as it clearly indicates what will happen when clicking the link
-The clear instructions and visible link location make this action very approachable for ABI.</t>
+- The page provides comprehensive information about why clicking the Syllabus is important ("read through the syllabus - do actually read the whole thing carefully, since there's a lot of important information there")
+- The action is straightforward and doesn't require any technical expertise or risky decisions
+- The interface is familiar (a simple link click) which helps with ABI's lower computer self-efficacy
+The clear instructions and simple interface make this action very approachable for ABI, and she would feel confident in taking this step.</t>
         </is>
       </c>
     </row>
@@ -465,16 +465,17 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Learning Style
+3. Attitude toward Risk
 4. None of the Above (Information Overload)
-Why: Although ABI has reached the syllabus page, she will likely struggle to confirm she's making progress because:
-- The page presents multiple options (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) without clear guidance on which to select first
-- There are multiple PDF links and versions of the syllabus, which could confuse ABI about which one contains the Week 1 information
-- The weekly schedule table contains a lot of information at once, making it overwhelming to process
-- The technical terms and abbreviations (like "UCD", "Topic A", etc.) might be unfamiliar to ABI given her lower computer self-efficacy
-- While Week 1 information is present in the table, it's embedded within a large amount of other information, making it difficult for ABI's comprehensive information processing style to focus on just Week 1 details
-- The page lacks clear indicators or highlighting of immediate next steps, which doesn't align with ABI's process-oriented learning style
-The overwhelming amount of information and lack of clear next steps would make it difficult for ABI to confirm she's making progress toward her specific goal of finding Week 1 information and deadlines.</t>
+Why: Although ABI has reached the syllabus page, she might struggle to confirm she's making progress because:
+- The page presents multiple options/tabs (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) which could overwhelm ABI given her comprehensive information processing style
+- There are multiple PDF download links and options which might confuse ABI about which one contains the specific Week 1 information
+- The weekly schedule table, while present, contains a lot of information at once and has footnotes/additional information that needs to be processed
+- The page doesn't provide clear, direct confirmation that this is where she'll find Week 1 deadlines
+- Given ABI's low computer self-efficacy, the multiple PDF options and links might make her unsure about which one to choose
+- The footnote about "additional information" in another section adds uncertainty about whether she has all the needed information
+- The amount of information presented at once could overwhelm ABI, making it difficult for her to confirm she's found everything she needs about Week 1
+The complexity and volume of information without clear guidance about where specifically to find Week 1 details would make it difficult for ABI to feel confident she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -486,14 +487,15 @@
 1. Information Processing Style
 2. Motivations
 3. Learning Style
-Why: ABI would consider finding the summary of activities and deadlines as a necessary step because:
-- ABI's comprehensive information processing style aligns with wanting to understand all requirements and deadlines
-- The page shows a clear "Weekly schedule" table that appears to contain the information she needs
-- The table has a column specifically titled "What is 'due' in class" which directly relates to her goal of finding deadlines
-- There's a footnote about discussion contributions being "due weekly by Monday at 8:00 am" which provides specific deadline information
-- ABI is motivated to complete tasks correctly and would want to gather all the necessary information before proceeding
-- The structured format of the weekly schedule (organized by week numbers) aligns with her process-oriented learning style
-Despite the page being information-heavy, ABI would recognize this as a logical step since it contains the specific scheduling information she needs to find Week 1 activities and deadlines.</t>
+Why: ABI would consider finding the summary of activities and deadlines as an important step because:
+- The weekly schedule table is clearly visible and structured, which aligns with ABI's process-oriented learning style
+- The table explicitly shows "What is 'due' in class" which directly relates to her goal of finding Week 1 deadlines
+- ABI's comprehensive information processing style would appreciate that the table provides a complete overview of course activities
+- The table is organized by weeks, making it easy to locate Week 1 specifically
+- There's a footnote providing additional deadline information about discussion posts ("due weekly by Monday at 8:00 am"), which supports ABI's need for complete information
+- The structured format of the information (table with clear headers and dates) makes it feel like a reliable source of deadline information
+- This aligns with ABI's motivation to thoroughly understand course requirements and deadlines
+The clear organization and comprehensive presentation of deadline information would make ABI feel this is a necessary step toward understanding Week 1 requirements.</t>
         </is>
       </c>
     </row>
@@ -504,20 +506,17 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. None of the Above (Unclear Information Structure)
-4. Learning Style
-Why: ABI would struggle at this step because:
-- The "Course Summary" section appears empty/blank in the page, which would confuse ABI who prefers clear, explicit information
-- There are multiple competing elements on the page (multiple PDF links, tabs at the top, and a weekly schedule table) without clear indication of which one contains the detailed deadline information
-- The page structure doesn't provide a clear process-oriented path to find the specific Week 1 deadline information
-- ABI's comprehensive information processing style would make her uncertain about whether to:
-  * Look at the Weekly Schedule table
-  * Click on "Schedule of Assignments and Quizzes" PDF
-  * Read through the Syllabus PDF
-  * Look at the Course Summary section
-- The empty Course Summary section doesn't provide the confirmation ABI needs to know she's taking the right action
-- With her lower computer self-efficacy, having multiple options without clear guidance would make her hesitant about which path to take
-The lack of clear structure and multiple competing information sources would make it difficult for ABI to confidently know what action to take next.</t>
+3. Attitude toward Risk
+4. None of the Above (Unclear Direction)
+Why: ABI would likely struggle at this step because:
+- The "Course Summary" section appears empty/incomplete on the page, providing no clear indication of what information it contains
+- There are multiple options above (Syllabus &amp; Schedule, Tools, Course Introduction, etc.) and multiple PDF download links, which could make ABI uncertain about where to look first
+- Given ABI's comprehensive information processing style, she would be confused by the presence of both a "Course Summary" section and a "Weekly Schedule" section, unsure which one contains the deadline information
+- The page doesn't provide clear guidance about whether to read the Course Summary or the Weekly Schedule for deadline information
+- With ABI's low computer self-efficacy, having multiple possible places to look (PDFs, Course Summary, Weekly Schedule) without clear direction would make her hesitant
+- ABI's risk-averse nature would make her uncomfortable about choosing between multiple options without clear indication of which one contains the needed information
+- The empty/incomplete Course Summary section might make ABI doubt if she's looking in the right place
+The lack of clear direction and multiple competing information sources would make it difficult for ABI to confidently know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -529,20 +528,17 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Learning Style
-4. None of the Above (Incomplete/Unclear Information)
+4. None of the Above (Incomplete Information)
 Why: ABI would not feel confident she's making progress because:
-- The Course Summary section appears empty/blank, providing no actual information about deadlines or activities
-- While there is a Weekly Schedule table below, it doesn't provide complete information about deadlines:
-  * It shows topics but doesn't specify exact due dates for assignments
-  * Contains technical terms (like "Topic A", "UCD") that might be unfamiliar to ABI
-  * Doesn't clearly state all requirements for Week 1
-- With ABI's comprehensive information processing style, she would feel uncertain because:
-  * The information is scattered across different sections and PDFs
-  * There's no clear connection between the Weekly Schedule and specific deadlines
-  * The footnote about discussion posts due "Monday at 8:00 am" doesn't specify if this applies to Week 1
-- Given ABI's process-oriented learning style, the lack of clear, step-by-step information about Week 1 requirements would make her unsure if she's found everything she needs
-- With her lower computer self-efficacy, she would be uncertain if she needs to look elsewhere (like the PDF documents) for complete information
-The incomplete and fragmented nature of the information would not give ABI confidence that she has found all the necessary Week 1 information and deadlines.</t>
+- The Course Summary section appears empty/incomplete with just headers for "Date", "Details", and "Due" but no actual content
+- Given ABI's comprehensive information processing style, she would be concerned about missing information since the Course Summary is empty
+- There's no clear indication whether she should continue looking elsewhere for the information
+- The presence of multiple information sources (empty Course Summary, Weekly Schedule table, PDF downloads) would create uncertainty
+- ABI's process-oriented learning style would be frustrated by the lack of clear, complete information in the Course Summary
+- The empty section would lower her computer self-efficacy, making her question if she's doing something wrong or if the page isn't loading properly
+- While there is a Weekly Schedule table below, ABI wouldn't be confident that she's found all the deadline information since the Course Summary section exists but is empty
+- The footnote suggesting "additional information" in another section would make her uncertain if she has complete information
+The incomplete/empty Course Summary section combined with multiple potential information sources would prevent ABI from feeling confident she's found all the necessary Week 1 information.</t>
         </is>
       </c>
     </row>
